--- a/medicine/Enfance/Alice_et_l'Ancre_brisée/Alice_et_l'Ancre_brisée.xlsx
+++ b/medicine/Enfance/Alice_et_l'Ancre_brisée/Alice_et_l'Ancre_brisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_l%27Ancre_bris%C3%A9e</t>
+          <t>Alice_et_l'Ancre_brisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et l'Ancre brisée (titre original : The Broken Anchor, littéralement : L'Ancre brisée) est le 70e[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Sharon Wagner. 
-Aux États-Unis, le roman a été publié en 1983 par Simon &amp; Schuster[2], New York. En France, il est paru pour la première fois en 1987 chez Hachette dans la collection « Bibliothèque verte ». Il n'a plus été réédité en France depuis 2001. 
+Alice et l'Ancre brisée (titre original : The Broken Anchor, littéralement : L'Ancre brisée) est le 70e roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Sharon Wagner. 
+Aux États-Unis, le roman a été publié en 1983 par Simon &amp; Schuster, New York. En France, il est paru pour la première fois en 1987 chez Hachette dans la collection « Bibliothèque verte ». Il n'a plus été réédité en France depuis 2001. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_l%27Ancre_bris%C3%A9e</t>
+          <t>Alice_et_l'Ancre_brisée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1987 à 1988 en langue française.
 Alice reçoit une lettre accompagnée de deux billets d’avions, lui annonçant qu'elle a gagné un voyage pour deux personnes dans une station balnéaire des Bahamas, sur l'île de l'Ancre. Pourtant, Alice ne se souvient pas d'avoir participé à un concours. 
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_l%27Ancre_bris%C3%A9e</t>
+          <t>Alice_et_l'Ancre_brisée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,14 +564,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy : détective amateur de dix-huit ans, blonde, fille de l'avocat James Roy, orpheline de mère.
-James Roy : avocat[3] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy : détective amateur de dix-huit ans, blonde, fille de l'avocat James Roy, orpheline de mère.
+James Roy : avocat de renom, père d'Alice Roy, veuf.
 Bess Taylor : jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb : jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
-Sarah : la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Jeff De Foe : propriétaire d'un hôtel aux Bahamas, sur l'île de l'Ancre.
+Sarah : la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_l'Ancre_brisée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_l%27Ancre_bris%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jeff De Foe : propriétaire d'un hôtel aux Bahamas, sur l'île de l'Ancre.
 Lena De Foe (Lenna de Foe en VO) : épouse de Jeff De Foe.
 Penny de Foe : jeune fille, la petite-fille de Jeff et Lena De Foe's (elle est leur petite-nièce en VO)
 Tom : malfaiteur.
@@ -565,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_l%27Ancre_bris%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_l'Ancre_brisée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_l%27Ancre_bris%C3%A9e</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1987 : Hachette, collection Bibliothèque verte (série hachurée), cartonné (français, version originale). Illustré par Philippe Daure. Texte français de Dominique Rousset. 20 chapitres. 186 p. 
 1988 : Hachette, collection Bibliothèque verte no 441, souple (français, version originale). Illustré par Philippe Daure. Texte français de Dominique Rousset.
@@ -597,31 +652,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alice_et_l%27Ancre_bris%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alice_et_l'Ancre_brisée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_l%27Ancre_bris%C3%A9e</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman a été adapté en jeu vidéo par Her Interactive sous le titre Les Enquêtes de Nancy Drew : Kidnapping aux Bahamas.[réf. nécessaire]
 </t>
